--- a/pics/our-spots-routes.xlsx
+++ b/pics/our-spots-routes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Route</t>
   </si>
@@ -65,9 +65,6 @@
     <t>login</t>
   </si>
   <si>
-    <t>/login</t>
-  </si>
-  <si>
     <t>login.ejs</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>redirect to login</t>
   </si>
   <si>
-    <t>/register</t>
-  </si>
-  <si>
     <t>sign up for the site</t>
   </si>
   <si>
@@ -140,13 +134,34 @@
     <t>GET, POST</t>
   </si>
   <si>
-    <t>GET, PUT</t>
-  </si>
-  <si>
     <t>/restaurants/:restid</t>
   </si>
   <si>
     <t>see all restaurants not already on the user's list</t>
+  </si>
+  <si>
+    <t>/users</t>
+  </si>
+  <si>
+    <t>/users/new</t>
+  </si>
+  <si>
+    <t>GET, PUT, POST</t>
+  </si>
+  <si>
+    <t>/restaurants/my/seen</t>
+  </si>
+  <si>
+    <t>/restaurants/:id</t>
+  </si>
+  <si>
+    <t>/restaurants/my/:id</t>
+  </si>
+  <si>
+    <t>Original Routes</t>
+  </si>
+  <si>
+    <t>/restaurants/my/unseen</t>
   </si>
 </sst>
 </file>
@@ -190,13 +205,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -476,221 +495,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" customWidth="1"/>
-    <col min="6" max="6" width="50.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" customWidth="1"/>
+    <col min="7" max="7" width="50.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
       <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
         <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
